--- a/output/sites/percent_differences_with_all_scat_est_all_scenarios_Cap Noir.xlsx
+++ b/output/sites/percent_differences_with_all_scat_est_all_scenarios_Cap Noir.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">scenario</t>
   </si>
   <si>
     <t xml:space="preserve">Summarising variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
   </si>
   <si>
     <t xml:space="preserve">Fe</t>
@@ -401,31 +404,37 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
+        <v>70</v>
+      </c>
+      <c r="D2" t="n">
         <v>39</v>
       </c>
-      <c r="D2" t="n">
-        <v>11</v>
-      </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H2" t="n">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="I2" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -433,25 +442,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
+        <v>-50</v>
+      </c>
+      <c r="D3" t="n">
         <v>-81</v>
       </c>
-      <c r="D3" t="n">
-        <v>-8</v>
-      </c>
       <c r="E3" t="n">
-        <v>-61</v>
+        <v>-1</v>
       </c>
       <c r="F3" t="n">
-        <v>-39</v>
+        <v>-65</v>
       </c>
       <c r="G3" t="n">
-        <v>-59</v>
+        <v>-66</v>
       </c>
       <c r="H3" t="n">
-        <v>-81</v>
+        <v>-69</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-87</v>
       </c>
     </row>
     <row r="4">
@@ -459,25 +471,28 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
+        <v>144</v>
+      </c>
+      <c r="D4" t="n">
         <v>29</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
         <v>23</v>
       </c>
-      <c r="E4" t="n">
-        <v>21</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14</v>
-      </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H4" t="n">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -485,24 +500,27 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
         <v>69</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
       <c r="F5" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
+        <v>44</v>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>63</v>
       </c>
     </row>
@@ -511,24 +529,27 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
+        <v>-36</v>
+      </c>
+      <c r="D6" t="n">
         <v>-72</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-1</v>
       </c>
-      <c r="E6" t="n">
-        <v>-3</v>
-      </c>
       <c r="F6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G6" t="n">
         <v>-45</v>
       </c>
-      <c r="G6" t="n">
-        <v>-9</v>
-      </c>
       <c r="H6" t="n">
+        <v>-8</v>
+      </c>
+      <c r="I6" t="n">
         <v>-66</v>
       </c>
     </row>
@@ -537,25 +558,28 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
         <v>124</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="n">
-        <v>4</v>
-      </c>
       <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
         <v>78</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>5</v>
       </c>
-      <c r="H7" t="n">
-        <v>112</v>
+      <c r="I7" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="8">
@@ -563,25 +587,28 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
         <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -589,25 +616,28 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>-48</v>
+        <v>-62</v>
       </c>
       <c r="D9" t="n">
+        <v>-53</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-10</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-10</v>
+      </c>
+      <c r="H9" t="n">
         <v>-5</v>
       </c>
-      <c r="E9" t="n">
-        <v>-9</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-31</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-32</v>
+      <c r="I9" t="n">
+        <v>-33</v>
       </c>
     </row>
     <row r="10">
@@ -615,25 +645,28 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -641,25 +674,28 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
+        <v>34</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" t="n">
         <v>25</v>
       </c>
-      <c r="E11" t="n">
-        <v>21</v>
-      </c>
-      <c r="F11" t="n">
-        <v>31</v>
-      </c>
       <c r="G11" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H11" t="n">
-        <v>35</v>
+        <v>56</v>
+      </c>
+      <c r="I11" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -667,25 +703,28 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>-94</v>
+        <v>-71</v>
       </c>
       <c r="D12" t="n">
-        <v>-62</v>
+        <v>-95</v>
       </c>
       <c r="E12" t="n">
+        <v>-57</v>
+      </c>
+      <c r="F12" t="n">
         <v>-9</v>
       </c>
-      <c r="F12" t="n">
-        <v>-78</v>
-      </c>
       <c r="G12" t="n">
-        <v>-23</v>
+        <v>-79</v>
       </c>
       <c r="H12" t="n">
-        <v>-89</v>
+        <v>-19</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-93</v>
       </c>
     </row>
     <row r="13">
@@ -693,25 +732,28 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>71</v>
+      </c>
+      <c r="G13" t="n">
         <v>10</v>
       </c>
-      <c r="C13" t="n">
-        <v>17</v>
-      </c>
-      <c r="D13" t="n">
-        <v>11</v>
-      </c>
-      <c r="E13" t="n">
-        <v>52</v>
-      </c>
-      <c r="F13" t="n">
-        <v>14</v>
-      </c>
-      <c r="G13" t="n">
-        <v>129</v>
-      </c>
       <c r="H13" t="n">
-        <v>16</v>
+        <v>157</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/output/sites/percent_differences_with_all_scat_est_all_scenarios_Cap Noir.xlsx
+++ b/output/sites/percent_differences_with_all_scat_est_all_scenarios_Cap Noir.xlsx
@@ -416,25 +416,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D2" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I2" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -503,25 +503,25 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="E5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" t="n">
-        <v>44</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
       <c r="I5" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -532,25 +532,25 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>-36</v>
+        <v>-46</v>
       </c>
       <c r="D6" t="n">
-        <v>-72</v>
+        <v>-85</v>
       </c>
       <c r="E6" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-24</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-69</v>
+      </c>
+      <c r="H6" t="n">
         <v>-1</v>
       </c>
-      <c r="F6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-45</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-8</v>
-      </c>
       <c r="I6" t="n">
-        <v>-66</v>
+        <v>-89</v>
       </c>
     </row>
     <row r="7">
@@ -561,25 +561,25 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D7" t="n">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="E7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15</v>
+      </c>
+      <c r="G7" t="n">
+        <v>42</v>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>78</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
       <c r="I7" t="n">
-        <v>113</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -590,25 +590,25 @@
         <v>9</v>
       </c>
       <c r="C8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D8" t="n">
         <v>30</v>
       </c>
-      <c r="D8" t="n">
-        <v>26</v>
-      </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I8" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -619,25 +619,25 @@
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>-62</v>
+        <v>-71</v>
       </c>
       <c r="D9" t="n">
-        <v>-53</v>
+        <v>-95</v>
       </c>
       <c r="E9" t="n">
-        <v>-8</v>
+        <v>-57</v>
       </c>
       <c r="F9" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="G9" t="n">
-        <v>-10</v>
+        <v>-79</v>
       </c>
       <c r="H9" t="n">
-        <v>-5</v>
+        <v>-19</v>
       </c>
       <c r="I9" t="n">
-        <v>-33</v>
+        <v>-93</v>
       </c>
     </row>
     <row r="10">
@@ -648,111 +648,24 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>34</v>
-      </c>
-      <c r="E11" t="n">
-        <v>20</v>
-      </c>
-      <c r="F11" t="n">
-        <v>25</v>
-      </c>
-      <c r="G11" t="n">
-        <v>28</v>
-      </c>
-      <c r="H11" t="n">
-        <v>56</v>
-      </c>
-      <c r="I11" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-71</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-95</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-57</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-9</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-79</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-19</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-93</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9</v>
-      </c>
-      <c r="D13" t="n">
-        <v>12</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8</v>
-      </c>
-      <c r="F13" t="n">
-        <v>71</v>
-      </c>
-      <c r="G13" t="n">
-        <v>10</v>
-      </c>
-      <c r="H13" t="n">
-        <v>157</v>
-      </c>
-      <c r="I13" t="n">
         <v>12</v>
       </c>
     </row>

--- a/output/sites/percent_differences_with_all_scat_est_all_scenarios_Cap Noir.xlsx
+++ b/output/sites/percent_differences_with_all_scat_est_all_scenarios_Cap Noir.xlsx
@@ -416,19 +416,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
         <v>31</v>
@@ -474,25 +474,25 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" t="n">
         <v>29</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>23</v>
       </c>
       <c r="G4" t="n">
+        <v>23</v>
+      </c>
+      <c r="H4" t="n">
         <v>24</v>
       </c>
-      <c r="H4" t="n">
-        <v>25</v>
-      </c>
       <c r="I4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -506,10 +506,10 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
@@ -538,16 +538,16 @@
         <v>-85</v>
       </c>
       <c r="E6" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="F6" t="n">
-        <v>-24</v>
+        <v>-25</v>
       </c>
       <c r="G6" t="n">
-        <v>-69</v>
+        <v>-70</v>
       </c>
       <c r="H6" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I6" t="n">
         <v>-89</v>
@@ -564,7 +564,7 @@
         <v>79</v>
       </c>
       <c r="D7" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -573,13 +573,13 @@
         <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>-79</v>
       </c>
       <c r="H9" t="n">
-        <v>-19</v>
+        <v>-20</v>
       </c>
       <c r="I9" t="n">
         <v>-93</v>
@@ -651,16 +651,16 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
         <v>71</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>157</v>
